--- a/Train/Assets/TrainData/Train_DataTable.xlsx
+++ b/Train/Assets/TrainData/Train_DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\Train\Assets\TrainData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\NiarT_Pro_Git\Train\Assets\TrainData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20943187-608E-494C-81CD-F656A9C23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C99295-291D-4323-896E-49A4E3C769DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{2A79EC6A-E475-4BC5-A722-88DE4CBD97B9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>Train_Engine_Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train_Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,26 +533,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ABD50F-7535-4516-86AC-BD3DAB8D1787}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,29 +565,32 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -596,23 +603,26 @@
       <c r="D2" s="2">
         <v>700000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>300</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>20</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>50</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -625,19 +635,22 @@
       <c r="D3" s="2">
         <v>500000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="1">
+      <c r="I3" s="2"/>
+      <c r="J3" s="1">
         <v>600000</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -650,17 +663,20 @@
       <c r="D4" s="2">
         <v>200000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.5</v>
       </c>
     </row>

--- a/Train/Assets/TrainData/Train_DataTable.xlsx
+++ b/Train/Assets/TrainData/Train_DataTable.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="Information_Mercenary" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Information_Item" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Information_Level" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Information_LevelCost" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -230,36 +231,6 @@
     <t>Level_Name</t>
   </si>
   <si>
-    <t>Upgrade_0</t>
-  </si>
-  <si>
-    <t>Upgrade_1</t>
-  </si>
-  <si>
-    <t>Upgrade_2</t>
-  </si>
-  <si>
-    <t>Upgrade_3</t>
-  </si>
-  <si>
-    <t>Upgrade_4</t>
-  </si>
-  <si>
-    <t>Upgrade_5</t>
-  </si>
-  <si>
-    <t>Upgrade_6</t>
-  </si>
-  <si>
-    <t>Upgrade_7</t>
-  </si>
-  <si>
-    <t>Upgrade_8</t>
-  </si>
-  <si>
-    <t>Upgrade_9</t>
-  </si>
-  <si>
     <t>Max_Level</t>
   </si>
   <si>
@@ -288,6 +259,36 @@
   </si>
   <si>
     <t>Level_Train_Efficient</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Cost_Level_Player_Atk</t>
+  </si>
+  <si>
+    <t>Cost_Level_Player_AtkDelay</t>
+  </si>
+  <si>
+    <t>Cost_Level_Player_HP</t>
+  </si>
+  <si>
+    <t>Cost_Level_Player_Armor</t>
+  </si>
+  <si>
+    <t>Cost_Level_Player_Speed</t>
+  </si>
+  <si>
+    <t>Cost_Level_Train_EngineTier</t>
+  </si>
+  <si>
+    <t>Cost_Level_Train_MaxSpeed</t>
+  </si>
+  <si>
+    <t>Cost_Level_Train_Armor</t>
+  </si>
+  <si>
+    <t>Cost_Level_Train_Efficient</t>
   </si>
 </sst>
 </file>
@@ -386,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -459,9 +460,6 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -487,6 +485,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3735,255 +3737,1126 @@
       <c r="B1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B2" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="22">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B3" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="22">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B4" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="22">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B5" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="22">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="22">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B7" s="23">
-        <v>40000.0</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B8" s="23">
-        <v>20000.0</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="23">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9" s="23">
-        <v>20000.0</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="23">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.43"/>
+    <col customWidth="1" min="3" max="3" width="22.14"/>
+    <col customWidth="1" min="4" max="4" width="15.14"/>
+    <col customWidth="1" min="5" max="5" width="18.29"/>
+    <col customWidth="1" min="6" max="6" width="18.0"/>
+    <col customWidth="1" min="7" max="8" width="20.71"/>
+    <col customWidth="1" min="9" max="9" width="17.14"/>
+    <col customWidth="1" min="10" max="10" width="18.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="23">
-        <v>20000.0</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23">
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
         <v>0.0</v>
       </c>
-      <c r="H10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="23">
+      <c r="B2" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3000.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4000.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5000.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6000.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7000.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8000.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1001.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2001.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3001.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4001.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5001.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6001.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7001.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8001.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9001.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1002.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2002.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3002.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4002.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5002.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6002.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7002.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8002.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>9002.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1003.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2003.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3003.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4003.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5003.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6003.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7003.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8003.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9003.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1004.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2004.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3004.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4004.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5004.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6004.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7004.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>8004.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>9004.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
         <v>5.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1005.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2005.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3005.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4005.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5005.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6005.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7005.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8005.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9005.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1006.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2006.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3006.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4006.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5006.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6006.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7006.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8006.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9006.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1007.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2007.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3007.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4007.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5007.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6007.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7007.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8007.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9007.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1008.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3008.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4008.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5008.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6008.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7008.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8008.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9008.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1009.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3009.0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4009.0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5009.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6009.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7009.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8009.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>9009.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1010.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3010.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4010.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5010.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6010.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7010.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8010.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>9010.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1011.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3011.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4011.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5011.0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6011.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>7011.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8011.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9011.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1012.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3012.0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4012.0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5012.0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>6012.0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7012.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>8012.0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>9012.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1013.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3013.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4013.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5013.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6013.0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>7013.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>8013.0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>9013.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1014.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3014.0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4014.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5014.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6014.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>7014.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>8014.0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>9014.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1015.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3015.0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4015.0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5015.0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6015.0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7015.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>8015.0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>9015.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1016.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3016.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4016.0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5016.0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6016.0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>7016.0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8016.0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9016.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1017.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3017.0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4017.0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5017.0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6017.0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7017.0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>8017.0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>9017.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1018.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3018.0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4018.0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5018.0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6018.0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7018.0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>8018.0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>9018.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1019.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3019.0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4019.0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5019.0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6019.0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>7019.0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>8019.0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>9019.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1020.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2020.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3020.0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4020.0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5020.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>6020.0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7020.0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>8020.0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>9020.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1021.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2021.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3021.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4021.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5021.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6021.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7021.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8021.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>9021.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1022.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2022.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3022.0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4022.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5022.0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6022.0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>7022.0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>8022.0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>9022.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1023.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2023.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3023.0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4023.0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5023.0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>6023.0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7023.0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8023.0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>9023.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1024.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2024.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3024.0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4024.0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5024.0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6024.0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7024.0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>8024.0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>9024.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1025.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2025.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3025.0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4025.0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5025.0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>6025.0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>7025.0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>8025.0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>9025.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1026.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2026.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3026.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4026.0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5026.0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6026.0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7026.0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>8026.0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>9026.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1027.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2027.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3027.0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4027.0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5027.0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>6027.0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7027.0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>8027.0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>9027.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1028.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2028.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3028.0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4028.0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>5028.0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>6028.0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>7028.0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>8028.0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>9028.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1029.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2029.0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3029.0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4029.0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5029.0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>6029.0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>7029.0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>8029.0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>9029.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1030.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2030.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3030.0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4030.0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5030.0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>6030.0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>7030.0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>8030.0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>9030.0</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/TrainData/Train_DataTable.xlsx
+++ b/Train/Assets/TrainData/Train_DataTable.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Information_Train" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Information_Stage" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Information_Mercenary" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Information_Item" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Information_Level" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Information_LevelCost" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Manual" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Information_Train" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Information_Stage" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Information_Mercenary" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Information_Item" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Information_Level" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Information_LevelCost" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>Number</t>
   </si>
@@ -259,6 +260,21 @@
   </si>
   <si>
     <t>Level_Train_Efficient</t>
+  </si>
+  <si>
+    <t>Level_Mercenary_Engine_Driver</t>
+  </si>
+  <si>
+    <t>Level_Mercenary_Engineer</t>
+  </si>
+  <si>
+    <t>Level_Mercenary_Long_Ranged</t>
+  </si>
+  <si>
+    <t>Level_Mercenary_Short_Ranged</t>
+  </si>
+  <si>
+    <t>Level_Mercenary_Medic</t>
   </si>
   <si>
     <t>Level</t>
@@ -317,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +382,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -387,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -460,6 +482,9 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -489,6 +514,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -687,6 +716,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -2205,7 +2248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -3412,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3454,6 +3497,9 @@
       <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="F2" s="5">
+        <v>2000.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -3462,6 +3508,9 @@
       <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="F3" s="5">
+        <v>3000.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
@@ -3470,6 +3519,9 @@
       <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="F4" s="5">
+        <v>4000.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
@@ -3478,6 +3530,9 @@
       <c r="C5" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="F5" s="5">
+        <v>5000.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -3486,16 +3541,291 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="5">
+        <v>6000.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>59.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3717,104 +4047,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -3825,46 +4057,205 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.43"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
-    <col customWidth="1" min="4" max="4" width="15.14"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="18.0"/>
-    <col customWidth="1" min="7" max="8" width="20.71"/>
-    <col customWidth="1" min="9" max="9" width="17.14"/>
-    <col customWidth="1" min="10" max="10" width="18.57"/>
+    <col customWidth="1" min="1" max="1" width="28.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="22">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="22">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="22">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="22">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="22">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
         <v>81</v>
       </c>
+      <c r="B11" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.43"/>
+    <col customWidth="1" min="3" max="3" width="25.14"/>
+    <col customWidth="1" min="4" max="4" width="20.0"/>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="6" max="6" width="22.86"/>
+    <col customWidth="1" min="7" max="7" width="25.57"/>
+    <col customWidth="1" min="8" max="8" width="25.43"/>
+    <col customWidth="1" min="9" max="9" width="22.0"/>
+    <col customWidth="1" min="10" max="10" width="23.29"/>
+    <col customWidth="1" min="11" max="11" width="28.86"/>
+    <col customWidth="1" min="12" max="12" width="24.29"/>
+    <col customWidth="1" min="13" max="13" width="28.29"/>
+    <col customWidth="1" min="14" max="14" width="28.86"/>
+    <col customWidth="1" min="15" max="15" width="22.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="N1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="O1" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -3898,6 +4289,21 @@
       <c r="J2" s="5">
         <v>9000.0</v>
       </c>
+      <c r="K2" s="5">
+        <v>10000.0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>20000.0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>30000.0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>40000.0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>50000.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -3930,6 +4336,21 @@
       <c r="J3" s="5">
         <v>9001.0</v>
       </c>
+      <c r="K3" s="5">
+        <v>10001.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>20001.0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>30001.0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>40001.0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>50001.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
@@ -3962,6 +4383,21 @@
       <c r="J4" s="5">
         <v>9002.0</v>
       </c>
+      <c r="K4" s="5">
+        <v>10002.0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>20002.0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>30002.0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>40002.0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>50002.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
@@ -3994,6 +4430,21 @@
       <c r="J5" s="5">
         <v>9003.0</v>
       </c>
+      <c r="K5" s="5">
+        <v>10003.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>20003.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>30003.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>40003.0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>50003.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -4026,6 +4477,21 @@
       <c r="J6" s="5">
         <v>9004.0</v>
       </c>
+      <c r="K6" s="5">
+        <v>10004.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>20004.0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>30004.0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>40004.0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>50004.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -4398,18 +4864,6 @@
       <c r="F18" s="5">
         <v>5016.0</v>
       </c>
-      <c r="G18" s="5">
-        <v>6016.0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>7016.0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>8016.0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>9016.0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
@@ -4430,18 +4884,6 @@
       <c r="F19" s="5">
         <v>5017.0</v>
       </c>
-      <c r="G19" s="5">
-        <v>6017.0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>7017.0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>8017.0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>9017.0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -4462,18 +4904,6 @@
       <c r="F20" s="5">
         <v>5018.0</v>
       </c>
-      <c r="G20" s="5">
-        <v>6018.0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>7018.0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>8018.0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>9018.0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
@@ -4494,18 +4924,6 @@
       <c r="F21" s="5">
         <v>5019.0</v>
       </c>
-      <c r="G21" s="5">
-        <v>6019.0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>7019.0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>8019.0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>9019.0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -4526,18 +4944,6 @@
       <c r="F22" s="5">
         <v>5020.0</v>
       </c>
-      <c r="G22" s="5">
-        <v>6020.0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>7020.0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>8020.0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>9020.0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
@@ -4558,18 +4964,6 @@
       <c r="F23" s="5">
         <v>5021.0</v>
       </c>
-      <c r="G23" s="5">
-        <v>6021.0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>7021.0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>8021.0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>9021.0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -4590,18 +4984,6 @@
       <c r="F24" s="5">
         <v>5022.0</v>
       </c>
-      <c r="G24" s="5">
-        <v>6022.0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>7022.0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>8022.0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>9022.0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -4622,18 +5004,6 @@
       <c r="F25" s="5">
         <v>5023.0</v>
       </c>
-      <c r="G25" s="5">
-        <v>6023.0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>7023.0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>8023.0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>9023.0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -4654,18 +5024,6 @@
       <c r="F26" s="5">
         <v>5024.0</v>
       </c>
-      <c r="G26" s="5">
-        <v>6024.0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>7024.0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>8024.0</v>
-      </c>
-      <c r="J26" s="5">
-        <v>9024.0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
@@ -4686,18 +5044,6 @@
       <c r="F27" s="5">
         <v>5025.0</v>
       </c>
-      <c r="G27" s="5">
-        <v>6025.0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>7025.0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>8025.0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>9025.0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
@@ -4718,18 +5064,6 @@
       <c r="F28" s="5">
         <v>5026.0</v>
       </c>
-      <c r="G28" s="5">
-        <v>6026.0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>7026.0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>8026.0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>9026.0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -4750,18 +5084,6 @@
       <c r="F29" s="5">
         <v>5027.0</v>
       </c>
-      <c r="G29" s="5">
-        <v>6027.0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>7027.0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>8027.0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>9027.0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -4782,18 +5104,6 @@
       <c r="F30" s="5">
         <v>5028.0</v>
       </c>
-      <c r="G30" s="5">
-        <v>6028.0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>7028.0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>8028.0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>9028.0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -4814,18 +5124,6 @@
       <c r="F31" s="5">
         <v>5029.0</v>
       </c>
-      <c r="G31" s="5">
-        <v>6029.0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>7029.0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>8029.0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>9029.0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
@@ -4845,18 +5143,6 @@
       </c>
       <c r="F32" s="5">
         <v>5030.0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>6030.0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>7030.0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>8030.0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>9030.0</v>
       </c>
     </row>
   </sheetData>
